--- a/Data/Word_Data.xlsx
+++ b/Data/Word_Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>female</t>
   </si>
@@ -51,9 +51,6 @@
     <t>mother</t>
   </si>
   <si>
-    <t>niece</t>
-  </si>
-  <si>
     <t>Black_Names</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>Dustin</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>grandmother</t>
   </si>
 </sst>
 </file>
@@ -317,8 +320,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +390,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +411,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,153 +756,153 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +921,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -926,21 +933,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -948,10 +955,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -959,10 +966,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -970,10 +977,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -981,10 +988,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -992,10 +999,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1003,10 +1010,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1014,10 +1021,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1025,48 +1032,51 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1084,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1097,21 +1107,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1119,10 +1129,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1130,10 +1140,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1141,10 +1151,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1152,10 +1162,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1163,10 +1173,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1174,10 +1184,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1185,10 +1195,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1196,48 +1206,51 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1269,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1267,149 +1280,151 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1"/>
     </row>
